--- a/results/mp/logistic/corona/confidence/84/desired-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/desired-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,39 +40,42 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
@@ -82,100 +85,106 @@
     <t>no</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
     <t>won</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>please</t>
   </si>
   <si>
     <t>save</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>ready</t>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
   <si>
     <t>well</t>
@@ -184,10 +193,13 @@
     <t>giving</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>share</t>
+    <t>safety</t>
   </si>
   <si>
     <t>care</t>
@@ -196,16 +208,13 @@
     <t>alert</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>important</t>
-  </si>
-  <si>
-    <t>increase</t>
   </si>
 </sst>
 </file>
@@ -563,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -571,10 +580,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -632,13 +641,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9210526315789473</v>
+        <v>0.839041095890411</v>
       </c>
       <c r="C3">
-        <v>35</v>
+        <v>245</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>245</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -650,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -682,13 +691,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8424657534246576</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C4">
-        <v>246</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>246</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -700,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K4">
-        <v>0.95</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -724,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -732,13 +741,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8378378378378378</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -750,19 +759,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K5">
-        <v>0.9491525423728814</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -774,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -782,7 +791,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8235294117647058</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C6">
         <v>28</v>
@@ -800,19 +809,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K6">
-        <v>0.9230769230769231</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L6">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="M6">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -824,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -832,13 +841,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7666666666666667</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -850,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K7">
-        <v>0.9190600522193212</v>
+        <v>0.9112271540469974</v>
       </c>
       <c r="L7">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="M7">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -874,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -882,13 +891,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7241379310344828</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -900,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K8">
-        <v>0.9166666666666666</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L8">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="M8">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -924,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -932,13 +941,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6944444444444444</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -953,16 +962,16 @@
         <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K9">
-        <v>0.9090909090909091</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="L9">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M9">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -974,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -982,13 +991,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.582010582010582</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C10">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1000,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K10">
-        <v>0.9090909090909091</v>
+        <v>0.8984375</v>
       </c>
       <c r="L10">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="M10">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1024,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1032,13 +1041,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4509803921568628</v>
+        <v>0.5608465608465608</v>
       </c>
       <c r="C11">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="D11">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1050,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K11">
-        <v>0.9069767441860465</v>
+        <v>0.8943661971830986</v>
       </c>
       <c r="L11">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="M11">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1074,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1082,13 +1091,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4476744186046512</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="C12">
-        <v>231</v>
+        <v>33</v>
       </c>
       <c r="D12">
-        <v>231</v>
+        <v>33</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1100,19 +1109,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>285</v>
+        <v>26</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K12">
-        <v>0.9014084507042254</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="L12">
-        <v>128</v>
+        <v>42</v>
       </c>
       <c r="M12">
-        <v>128</v>
+        <v>42</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1124,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1132,13 +1141,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3220338983050847</v>
+        <v>0.501937984496124</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>259</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>259</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1150,19 +1159,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>40</v>
+        <v>257</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K13">
-        <v>0.8962264150943396</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L13">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="M13">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1174,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1182,13 +1191,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.2666666666666667</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1200,19 +1209,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K14">
-        <v>0.8936170212765957</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L14">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="M14">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1224,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1232,13 +1241,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2348993288590604</v>
+        <v>0.2533333333333334</v>
       </c>
       <c r="C15">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D15">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1250,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K15">
-        <v>0.8928571428571429</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="L15">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="M15">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1282,132 +1291,180 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.1166666666666667</v>
+        <v>0.2281879194630873</v>
       </c>
       <c r="C16">
+        <v>34</v>
+      </c>
+      <c r="D16">
+        <v>34</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>115</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K16">
+        <v>0.8846153846153846</v>
+      </c>
+      <c r="L16">
+        <v>23</v>
+      </c>
+      <c r="M16">
+        <v>23</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>0.1277777777777778</v>
+      </c>
+      <c r="C17">
+        <v>46</v>
+      </c>
+      <c r="D17">
+        <v>46</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>314</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17">
+        <v>0.8793103448275862</v>
+      </c>
+      <c r="L17">
+        <v>51</v>
+      </c>
+      <c r="M17">
+        <v>51</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="C18">
+        <v>21</v>
+      </c>
+      <c r="D18">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>231</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18">
+        <v>0.8611111111111112</v>
+      </c>
+      <c r="L18">
+        <v>31</v>
+      </c>
+      <c r="M18">
+        <v>31</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="J19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19">
+        <v>0.85625</v>
+      </c>
+      <c r="L19">
+        <v>137</v>
+      </c>
+      <c r="M19">
+        <v>137</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="J20" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="D16">
-        <v>42</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>318</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K16">
-        <v>0.8875</v>
-      </c>
-      <c r="L16">
-        <v>142</v>
-      </c>
-      <c r="M16">
-        <v>142</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="10:17">
-      <c r="J17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K17">
-        <v>0.875</v>
-      </c>
-      <c r="L17">
-        <v>112</v>
-      </c>
-      <c r="M17">
-        <v>112</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="10:17">
-      <c r="J18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K18">
-        <v>0.8620689655172413</v>
-      </c>
-      <c r="L18">
-        <v>50</v>
-      </c>
-      <c r="M18">
-        <v>50</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="10:17">
-      <c r="J19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19">
-        <v>0.8611111111111112</v>
-      </c>
-      <c r="L19">
-        <v>31</v>
-      </c>
-      <c r="M19">
-        <v>31</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="10:17">
-      <c r="J20" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="K20">
         <v>0.8536585365853658</v>
@@ -1431,18 +1488,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="10:17">
+    <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K21">
-        <v>0.8461538461538461</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="L21">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1454,21 +1511,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="10:17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K22">
-        <v>0.8214285714285714</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L22">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M22">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1483,18 +1540,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="10:17">
+    <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K23">
-        <v>0.8148148148148148</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="L23">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="M23">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1506,21 +1563,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="10:17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K24">
-        <v>0.7916666666666666</v>
+        <v>0.8</v>
       </c>
       <c r="L24">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M24">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1535,70 +1592,70 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="10:17">
+    <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K25">
-        <v>0.7777777777777778</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L25">
+        <v>38</v>
+      </c>
+      <c r="M25">
+        <v>38</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="J26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K26">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="L26">
+        <v>19</v>
+      </c>
+      <c r="M26">
+        <v>19</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="J27" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M25">
-        <v>49</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="10:17">
-      <c r="J26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K26">
-        <v>0.775</v>
-      </c>
-      <c r="L26">
-        <v>31</v>
-      </c>
-      <c r="M26">
-        <v>31</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="10:17">
-      <c r="J27" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="K27">
-        <v>0.76</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L27">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="M27">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1610,21 +1667,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="10:17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K28">
-        <v>0.7529411764705882</v>
+        <v>0.7588235294117647</v>
       </c>
       <c r="L28">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M28">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1636,21 +1693,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="10:17">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K29">
-        <v>0.7428571428571429</v>
+        <v>0.7346938775510204</v>
       </c>
       <c r="L29">
-        <v>26</v>
+        <v>216</v>
       </c>
       <c r="M29">
-        <v>26</v>
+        <v>217</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1659,24 +1716,24 @@
         <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="10:17">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K30">
-        <v>0.735593220338983</v>
+        <v>0.725</v>
       </c>
       <c r="L30">
-        <v>217</v>
+        <v>29</v>
       </c>
       <c r="M30">
-        <v>217</v>
+        <v>29</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1688,21 +1745,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="10:17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K31">
-        <v>0.7196652719665272</v>
+        <v>0.7238493723849372</v>
       </c>
       <c r="L31">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M31">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1714,21 +1771,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="10:17">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K32">
         <v>0.7142857142857143</v>
       </c>
       <c r="L32">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M32">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1740,21 +1797,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K33">
-        <v>0.7142857142857143</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L33">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M33">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1771,16 +1828,16 @@
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K34">
-        <v>0.6808510638297872</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L34">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="M34">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1792,21 +1849,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K35">
-        <v>0.6666666666666666</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="L35">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="M35">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1818,21 +1875,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K36">
-        <v>0.6461538461538462</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L36">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="M36">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1844,21 +1901,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K37">
-        <v>0.6428571428571429</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L37">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M37">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1870,21 +1927,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K38">
-        <v>0.6179775280898876</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="L38">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="M38">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1896,21 +1953,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K39">
-        <v>0.5238095238095238</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="L39">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="M39">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1922,47 +1979,47 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K40">
-        <v>0.4931506849315068</v>
+        <v>0.5955056179775281</v>
       </c>
       <c r="L40">
+        <v>53</v>
+      </c>
+      <c r="M40">
+        <v>53</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
         <v>36</v>
-      </c>
-      <c r="M40">
-        <v>36</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>37</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K41">
-        <v>0.4705882352941176</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="L41">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M41">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1974,21 +2031,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K42">
-        <v>0.4222222222222222</v>
+        <v>0.5</v>
       </c>
       <c r="L42">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="M42">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2000,21 +2057,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K43">
-        <v>0.2435897435897436</v>
+        <v>0.4657534246575342</v>
       </c>
       <c r="L43">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="M43">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2026,7 +2083,33 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>59</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K44">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="L44">
+        <v>20</v>
+      </c>
+      <c r="M44">
+        <v>20</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
